--- a/app/assets/data/info/evo-france-info-week-v.xlsx
+++ b/app/assets/data/info/evo-france-info-week-v.xlsx
@@ -170,6 +170,36 @@
     <t>2019-06-12T18:00:03.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
   </si>
   <si>
@@ -179,13 +209,79 @@
     <t>2019-11-08T16:30:12.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
+  </si>
+  <si>
+    <t>Mon voisin m'offre une maison</t>
+  </si>
+  <si>
+    <t>2019-12-01T08:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
@@ -200,43 +296,13 @@
     <t>2019-12-17T15:51:57.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
-  </si>
-  <si>
-    <t>Mon voisin m'offre une maison</t>
-  </si>
-  <si>
-    <t>2019-12-01T08:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
@@ -248,70 +314,13 @@
     <t>2017-02-21T16:23:47.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
@@ -321,15 +330,6 @@
   </si>
   <si>
     <t>2019-12-21T22:07:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -1141,28 +1141,28 @@
         <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" s="3">
-        <v>3080</v>
+        <v>110</v>
       </c>
       <c r="F14" s="3">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="G14" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -1170,16 +1170,16 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3">
         <v>8968</v>
@@ -1205,34 +1205,34 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="3">
-        <v>2</v>
+        <v>4759</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -1246,19 +1246,19 @@
         <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="3">
-        <v>511312</v>
+        <v>3080</v>
       </c>
       <c r="F17" s="3">
-        <v>15167</v>
+        <v>58</v>
       </c>
       <c r="G17" s="3">
-        <v>402</v>
+        <v>5</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -1267,33 +1267,33 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c r="L17" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
         <v>65</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
         <v>66</v>
       </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
       <c r="E18" s="3">
-        <v>18665</v>
+        <v>222595</v>
       </c>
       <c r="F18" s="3">
-        <v>659</v>
+        <v>9022</v>
       </c>
       <c r="G18" s="3">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1322,13 +1322,13 @@
         <v>70</v>
       </c>
       <c r="E19" s="3">
-        <v>74953</v>
+        <v>2883</v>
       </c>
       <c r="F19" s="3">
-        <v>1016</v>
+        <v>42</v>
       </c>
       <c r="G19" s="3">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>212</v>
+        <v>6</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -1392,13 +1392,13 @@
         <v>76</v>
       </c>
       <c r="E21" s="3">
-        <v>4183126</v>
+        <v>566966</v>
       </c>
       <c r="F21" s="3">
-        <v>49430</v>
+        <v>18782</v>
       </c>
       <c r="G21" s="3">
-        <v>5701</v>
+        <v>416</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -1407,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1196</v>
+        <v>298</v>
       </c>
       <c r="L21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1421,19 +1421,19 @@
         <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
         <v>79</v>
       </c>
       <c r="E22" s="3">
-        <v>2883</v>
+        <v>69498</v>
       </c>
       <c r="F22" s="3">
-        <v>42</v>
+        <v>1189</v>
       </c>
       <c r="G22" s="3">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -1456,19 +1456,19 @@
         <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
         <v>82</v>
       </c>
       <c r="E23" s="3">
-        <v>222595</v>
+        <v>18665</v>
       </c>
       <c r="F23" s="3">
-        <v>9022</v>
+        <v>659</v>
       </c>
       <c r="G23" s="3">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -1477,10 +1477,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="L23" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1491,19 +1491,19 @@
         <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
         <v>85</v>
       </c>
       <c r="E24" s="3">
-        <v>566966</v>
+        <v>74953</v>
       </c>
       <c r="F24" s="3">
-        <v>18782</v>
+        <v>1016</v>
       </c>
       <c r="G24" s="3">
-        <v>416</v>
+        <v>29</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -1512,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>298</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1526,19 +1526,19 @@
         <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
         <v>88</v>
       </c>
       <c r="E25" s="3">
-        <v>69498</v>
+        <v>511312</v>
       </c>
       <c r="F25" s="3">
-        <v>1189</v>
+        <v>15167</v>
       </c>
       <c r="G25" s="3">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -1547,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1561,54 +1561,54 @@
         <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E26" s="3">
-        <v>472979</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3">
-        <v>20185</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E27" s="3">
-        <v>4759</v>
+        <v>472979</v>
       </c>
       <c r="F27" s="3">
-        <v>129</v>
+        <v>20185</v>
       </c>
       <c r="G27" s="3">
-        <v>6</v>
+        <v>515</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -1617,45 +1617,45 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="L27" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
         <v>98</v>
       </c>
       <c r="E28" s="3">
-        <v>110</v>
+        <v>4183126</v>
       </c>
       <c r="F28" s="3">
-        <v>2</v>
+        <v>49430</v>
       </c>
       <c r="G28" s="3">
-        <v>0</v>
+        <v>5701</v>
       </c>
       <c r="H28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1196</v>
       </c>
       <c r="L28" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1666,28 +1666,28 @@
         <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
         <v>101</v>
       </c>
       <c r="E29" s="3">
-        <v>5083</v>
+        <v>24890</v>
       </c>
       <c r="F29" s="3">
-        <v>594</v>
+        <v>1321</v>
       </c>
       <c r="G29" s="3">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="L29" t="s">
         <v>16</v>
@@ -1701,28 +1701,28 @@
         <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
         <v>104</v>
       </c>
       <c r="E30" s="3">
-        <v>24890</v>
+        <v>5083</v>
       </c>
       <c r="F30" s="3">
-        <v>1321</v>
+        <v>594</v>
       </c>
       <c r="G30" s="3">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B7">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-v.xlsx
+++ b/app/assets/data/info/evo-france-info-week-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
   <si>
     <t>URL</t>
   </si>
@@ -98,18 +98,6 @@
     <t>2019-12-24T11:57:18.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
-  </si>
-  <si>
-    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
-  </si>
-  <si>
-    <t>Citoyen, citoyenne !</t>
-  </si>
-  <si>
-    <t>2019-12-27T16:30:00.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
   </si>
   <si>
@@ -128,6 +116,54 @@
     <t>2019-12-28T19:53:21.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
+  </si>
+  <si>
+    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
+  </si>
+  <si>
+    <t>hommes libres</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:12:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
   </si>
   <si>
@@ -137,76 +173,13 @@
     <t>2019-12-09T17:00:07.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
-  </si>
-  <si>
-    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
-  </si>
-  <si>
-    <t>2019-12-05T08:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
-  </si>
-  <si>
-    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
-  </si>
-  <si>
-    <t>hommes libres</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:12:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
@@ -218,27 +191,6 @@
     <t>2019-04-15T15:30:02.000Z</t>
   </si>
   <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
   </si>
   <si>
@@ -248,13 +200,31 @@
     <t>2019-07-15T15:45:00.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
@@ -266,24 +236,6 @@
     <t>2017-07-09T23:51:59.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
-  </si>
-  <si>
-    <t>Mon voisin m'offre une maison</t>
-  </si>
-  <si>
-    <t>2019-12-01T08:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
   </si>
   <si>
@@ -294,42 +246,6 @@
   </si>
   <si>
     <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
-  </si>
-  <si>
-    <t>Proces Milan teaser</t>
-  </si>
-  <si>
-    <t>2019-12-21T22:07:35.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -690,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -896,19 +812,19 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" s="3">
-        <v>2959</v>
+        <v>2848</v>
       </c>
       <c r="F7" s="3">
-        <v>38</v>
+        <v>523</v>
       </c>
       <c r="G7" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -917,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -925,25 +841,25 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3">
-        <v>2848</v>
+        <v>1593</v>
       </c>
       <c r="F8" s="3">
-        <v>523</v>
+        <v>331</v>
       </c>
       <c r="G8" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -960,25 +876,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="3">
-        <v>1593</v>
+        <v>5563</v>
       </c>
       <c r="F9" s="3">
-        <v>331</v>
+        <v>265</v>
       </c>
       <c r="G9" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -987,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -1001,19 +917,19 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3">
-        <v>113046</v>
+        <v>4711</v>
       </c>
       <c r="F10" s="3">
-        <v>8422</v>
+        <v>387</v>
       </c>
       <c r="G10" s="3">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -1022,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -1030,25 +946,25 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3">
-        <v>12342</v>
+        <v>110</v>
       </c>
       <c r="F11" s="3">
-        <v>330</v>
+        <v>2</v>
       </c>
       <c r="G11" s="3">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -1057,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -1065,60 +981,60 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="3">
-        <v>5563</v>
+        <v>511312</v>
       </c>
       <c r="F12" s="3">
-        <v>265</v>
+        <v>15167</v>
       </c>
       <c r="G12" s="3">
-        <v>13</v>
+        <v>402</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3">
-        <v>4711</v>
+        <v>113046</v>
       </c>
       <c r="F13" s="3">
-        <v>387</v>
+        <v>8422</v>
       </c>
       <c r="G13" s="3">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1127,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -1135,34 +1051,34 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="3">
-        <v>110</v>
+        <v>69498</v>
       </c>
       <c r="F14" s="3">
-        <v>2</v>
+        <v>1189</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -1176,19 +1092,19 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
       </c>
       <c r="E15" s="3">
-        <v>8968</v>
+        <v>222595</v>
       </c>
       <c r="F15" s="3">
-        <v>117</v>
+        <v>9022</v>
       </c>
       <c r="G15" s="3">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -1197,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1211,19 +1127,19 @@
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="3">
-        <v>4759</v>
+        <v>566966</v>
       </c>
       <c r="F16" s="3">
-        <v>129</v>
+        <v>18782</v>
       </c>
       <c r="G16" s="3">
-        <v>6</v>
+        <v>416</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -1232,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="L16" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1246,19 +1162,19 @@
         <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="3">
-        <v>3080</v>
+        <v>472979</v>
       </c>
       <c r="F17" s="3">
-        <v>58</v>
+        <v>20185</v>
       </c>
       <c r="G17" s="3">
-        <v>5</v>
+        <v>515</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -1267,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13</v>
+        <v>260</v>
       </c>
       <c r="L17" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1281,19 +1197,19 @@
         <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="3">
-        <v>222595</v>
+        <v>24890</v>
       </c>
       <c r="F18" s="3">
-        <v>9022</v>
+        <v>1321</v>
       </c>
       <c r="G18" s="3">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -1302,33 +1218,33 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
         <v>68</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
         <v>69</v>
       </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
       <c r="E19" s="3">
-        <v>2883</v>
+        <v>4183126</v>
       </c>
       <c r="F19" s="3">
-        <v>42</v>
+        <v>49430</v>
       </c>
       <c r="G19" s="3">
-        <v>6</v>
+        <v>5701</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -1337,33 +1253,33 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>1196</v>
       </c>
       <c r="L19" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
         <v>71</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
         <v>72</v>
       </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
       <c r="E20" s="3">
-        <v>25592</v>
+        <v>18665</v>
       </c>
       <c r="F20" s="3">
-        <v>221</v>
+        <v>659</v>
       </c>
       <c r="G20" s="3">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -1372,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -1380,351 +1296,36 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
         <v>74</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>76</v>
       </c>
       <c r="E21" s="3">
-        <v>566966</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3">
-        <v>18782</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="3">
-        <v>69498</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1189</v>
-      </c>
-      <c r="G22" s="3">
-        <v>45</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>220</v>
-      </c>
-      <c r="L22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="3">
-        <v>18665</v>
-      </c>
-      <c r="F23" s="3">
-        <v>659</v>
-      </c>
-      <c r="G23" s="3">
-        <v>14</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>109</v>
-      </c>
-      <c r="L23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="3">
-        <v>74953</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1016</v>
-      </c>
-      <c r="G24" s="3">
-        <v>29</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>212</v>
-      </c>
-      <c r="L24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="3">
-        <v>511312</v>
-      </c>
-      <c r="F25" s="3">
-        <v>15167</v>
-      </c>
-      <c r="G25" s="3">
-        <v>402</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>201</v>
-      </c>
-      <c r="L25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="3">
-        <v>472979</v>
-      </c>
-      <c r="F27" s="3">
-        <v>20185</v>
-      </c>
-      <c r="G27" s="3">
-        <v>515</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>260</v>
-      </c>
-      <c r="L27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="3">
-        <v>4183126</v>
-      </c>
-      <c r="F28" s="3">
-        <v>49430</v>
-      </c>
-      <c r="G28" s="3">
-        <v>5701</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>1196</v>
-      </c>
-      <c r="L28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="3">
-        <v>24890</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1321</v>
-      </c>
-      <c r="G29" s="3">
-        <v>34</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>154</v>
-      </c>
-      <c r="L29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="3">
-        <v>5083</v>
-      </c>
-      <c r="F30" s="3">
-        <v>594</v>
-      </c>
-      <c r="G30" s="3">
-        <v>22</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1749,15 +1350,6 @@
     <hyperlink ref="A19" r:id="rId17"/>
     <hyperlink ref="A20" r:id="rId18"/>
     <hyperlink ref="A21" r:id="rId19"/>
-    <hyperlink ref="A22" r:id="rId20"/>
-    <hyperlink ref="A23" r:id="rId21"/>
-    <hyperlink ref="A24" r:id="rId22"/>
-    <hyperlink ref="A25" r:id="rId23"/>
-    <hyperlink ref="A26" r:id="rId24"/>
-    <hyperlink ref="A27" r:id="rId25"/>
-    <hyperlink ref="A28" r:id="rId26"/>
-    <hyperlink ref="A29" r:id="rId27"/>
-    <hyperlink ref="A30" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1765,7 +1357,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1780,7 +1372,7 @@
         <v>14</v>
       </c>
       <c r="B1">
-        <v>127464</v>
+        <v>126844</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1793,41 +1385,33 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B3">
-        <v>3036</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-week-v.xlsx
+++ b/app/assets/data/info/evo-france-info-week-v.xlsx
@@ -152,6 +152,84 @@
     <t>2019-01-28T18:58:55.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
+  </si>
+  <si>
+    <t>Les voyageurs relous - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-12-09T17:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
   </si>
   <si>
@@ -161,63 +239,6 @@
     <t>2019-06-24T16:00:05.000Z</t>
   </si>
   <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
-  </si>
-  <si>
-    <t>Les voyageurs relous - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-12-09T17:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
   </si>
   <si>
@@ -225,27 +246,6 @@
   </si>
   <si>
     <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -993,13 +993,13 @@
         <v>47</v>
       </c>
       <c r="E12" s="3">
-        <v>511312</v>
+        <v>222595</v>
       </c>
       <c r="F12" s="3">
-        <v>15167</v>
+        <v>9022</v>
       </c>
       <c r="G12" s="3">
-        <v>402</v>
+        <v>147</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
         <v>48</v>
@@ -1063,13 +1063,13 @@
         <v>54</v>
       </c>
       <c r="E14" s="3">
-        <v>69498</v>
+        <v>18665</v>
       </c>
       <c r="F14" s="3">
-        <v>1189</v>
+        <v>659</v>
       </c>
       <c r="G14" s="3">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -1092,54 +1092,54 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3">
-        <v>222595</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3">
-        <v>9022</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" s="3">
-        <v>566966</v>
+        <v>69498</v>
       </c>
       <c r="F16" s="3">
-        <v>18782</v>
+        <v>1189</v>
       </c>
       <c r="G16" s="3">
-        <v>416</v>
+        <v>45</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -1148,33 +1148,33 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="L16" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3">
-        <v>472979</v>
+        <v>566966</v>
       </c>
       <c r="F17" s="3">
-        <v>20185</v>
+        <v>18782</v>
       </c>
       <c r="G17" s="3">
-        <v>515</v>
+        <v>416</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="L17" t="s">
         <v>48</v>
@@ -1191,16 +1191,16 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" s="3">
         <v>24890</v>
@@ -1226,25 +1226,25 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E19" s="3">
-        <v>4183126</v>
+        <v>472979</v>
       </c>
       <c r="F19" s="3">
-        <v>49430</v>
+        <v>20185</v>
       </c>
       <c r="G19" s="3">
-        <v>5701</v>
+        <v>515</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1196</v>
+        <v>260</v>
       </c>
       <c r="L19" t="s">
         <v>48</v>
@@ -1261,25 +1261,25 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" s="3">
-        <v>18665</v>
+        <v>511312</v>
       </c>
       <c r="F20" s="3">
-        <v>659</v>
+        <v>15167</v>
       </c>
       <c r="G20" s="3">
-        <v>14</v>
+        <v>402</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -1288,45 +1288,45 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>76</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>4183126</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>49430</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>5701</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1196</v>
       </c>
       <c r="L21" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-v.xlsx
+++ b/app/assets/data/info/evo-france-info-week-v.xlsx
@@ -140,6 +140,45 @@
     <t>2019-06-12T18:00:03.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
+  </si>
+  <si>
+    <t>Les voyageurs relous - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-12-09T17:00:07.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
   </si>
   <si>
@@ -152,6 +191,36 @@
     <t>2019-01-28T18:58:55.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
   </si>
   <si>
@@ -161,55 +230,13 @@
     <t>2019-04-15T15:30:02.000Z</t>
   </si>
   <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
-  </si>
-  <si>
-    <t>Les voyageurs relous - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-12-09T17:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
@@ -219,33 +246,6 @@
   </si>
   <si>
     <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -952,31 +952,31 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="3">
+        <v>511312</v>
+      </c>
+      <c r="F11" s="3">
+        <v>15167</v>
+      </c>
+      <c r="G11" s="3">
+        <v>402</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>201</v>
+      </c>
+      <c r="L11" t="s">
         <v>44</v>
-      </c>
-      <c r="E11" s="3">
-        <v>110</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -993,13 +993,13 @@
         <v>47</v>
       </c>
       <c r="E12" s="3">
-        <v>222595</v>
+        <v>566966</v>
       </c>
       <c r="F12" s="3">
-        <v>9022</v>
+        <v>18782</v>
       </c>
       <c r="G12" s="3">
-        <v>147</v>
+        <v>416</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1008,42 +1008,42 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>130</v>
+        <v>298</v>
       </c>
       <c r="L12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" s="3">
+        <v>18665</v>
+      </c>
+      <c r="F13" s="3">
+        <v>659</v>
+      </c>
+      <c r="G13" s="3">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="3">
-        <v>113046</v>
-      </c>
-      <c r="F13" s="3">
-        <v>8422</v>
-      </c>
-      <c r="G13" s="3">
-        <v>83</v>
-      </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -1051,34 +1051,34 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
       <c r="E14" s="3">
-        <v>18665</v>
+        <v>113046</v>
       </c>
       <c r="F14" s="3">
-        <v>659</v>
+        <v>8422</v>
       </c>
       <c r="G14" s="3">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -1086,22 +1086,22 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>56</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>57</v>
       </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
       <c r="E15" s="3">
+        <v>110</v>
+      </c>
+      <c r="F15" s="3">
         <v>2</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1121,34 +1121,34 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
         <v>59</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="3">
-        <v>69498</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3">
-        <v>1189</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -1168,13 +1168,13 @@
         <v>64</v>
       </c>
       <c r="E17" s="3">
-        <v>566966</v>
+        <v>472979</v>
       </c>
       <c r="F17" s="3">
-        <v>18782</v>
+        <v>20185</v>
       </c>
       <c r="G17" s="3">
-        <v>416</v>
+        <v>515</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="L17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1203,13 +1203,13 @@
         <v>67</v>
       </c>
       <c r="E18" s="3">
-        <v>24890</v>
+        <v>69498</v>
       </c>
       <c r="F18" s="3">
-        <v>1321</v>
+        <v>1189</v>
       </c>
       <c r="G18" s="3">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -1238,13 +1238,13 @@
         <v>70</v>
       </c>
       <c r="E19" s="3">
-        <v>472979</v>
+        <v>222595</v>
       </c>
       <c r="F19" s="3">
-        <v>20185</v>
+        <v>9022</v>
       </c>
       <c r="G19" s="3">
-        <v>515</v>
+        <v>147</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="L19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1273,13 +1273,13 @@
         <v>73</v>
       </c>
       <c r="E20" s="3">
-        <v>511312</v>
+        <v>4183126</v>
       </c>
       <c r="F20" s="3">
-        <v>15167</v>
+        <v>49430</v>
       </c>
       <c r="G20" s="3">
-        <v>402</v>
+        <v>5701</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>201</v>
+        <v>1196</v>
       </c>
       <c r="L20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1302,19 +1302,19 @@
         <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>76</v>
       </c>
       <c r="E21" s="3">
-        <v>4183126</v>
+        <v>24890</v>
       </c>
       <c r="F21" s="3">
-        <v>49430</v>
+        <v>1321</v>
       </c>
       <c r="G21" s="3">
-        <v>5701</v>
+        <v>34</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1196</v>
+        <v>154</v>
       </c>
       <c r="L21" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-v.xlsx
+++ b/app/assets/data/info/evo-france-info-week-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>URL</t>
   </si>
@@ -68,54 +68,6 @@
     <t>[]</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
-  </si>
-  <si>
-    <t>Le cadeau de la France à tous les peuples du monde</t>
-  </si>
-  <si>
-    <t>Demo Sophie</t>
-  </si>
-  <si>
-    <t>2019-12-25T15:53:44.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
-  </si>
-  <si>
-    <t>Impact du Procès de Milan sur la France et le monde</t>
-  </si>
-  <si>
-    <t>2019-12-27T15:54:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
-  </si>
-  <si>
-    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:57:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
-  </si>
-  <si>
-    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:11:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
-  </si>
-  <si>
-    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-28T19:53:21.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
   </si>
   <si>
@@ -152,6 +104,78 @@
     <t>['Franjo']</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
   </si>
   <si>
@@ -161,46 +185,13 @@
     <t>2019-07-15T15:45:00.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
-  </si>
-  <si>
-    <t>Les voyageurs relous - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-12-09T17:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
@@ -210,42 +201,6 @@
   </si>
   <si>
     <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -606,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -713,13 +668,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>13154</v>
+        <v>5563</v>
       </c>
       <c r="F4" s="3">
-        <v>1256</v>
+        <v>265</v>
       </c>
       <c r="G4" s="3">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -728,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -742,19 +697,19 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>5962</v>
+        <v>4711</v>
       </c>
       <c r="F5" s="3">
-        <v>765</v>
+        <v>387</v>
       </c>
       <c r="G5" s="3">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -763,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -771,69 +726,69 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3">
-        <v>3021</v>
+        <v>511312</v>
       </c>
       <c r="F6" s="3">
-        <v>580</v>
+        <v>15167</v>
       </c>
       <c r="G6" s="3">
-        <v>13</v>
+        <v>402</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3">
-        <v>2848</v>
+        <v>18665</v>
       </c>
       <c r="F7" s="3">
-        <v>523</v>
+        <v>659</v>
       </c>
       <c r="G7" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -841,34 +796,34 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3">
-        <v>1593</v>
+        <v>24890</v>
       </c>
       <c r="F8" s="3">
-        <v>331</v>
+        <v>1321</v>
       </c>
       <c r="G8" s="3">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -876,25 +831,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3">
-        <v>5563</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -903,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -911,25 +866,25 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3">
-        <v>4711</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -938,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -946,25 +901,25 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3">
-        <v>511312</v>
+        <v>69498</v>
       </c>
       <c r="F11" s="3">
-        <v>15167</v>
+        <v>1189</v>
       </c>
       <c r="G11" s="3">
-        <v>402</v>
+        <v>45</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -973,68 +928,68 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3">
-        <v>566966</v>
+        <v>110</v>
       </c>
       <c r="F12" s="3">
-        <v>18782</v>
+        <v>2</v>
       </c>
       <c r="G12" s="3">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3">
-        <v>18665</v>
+        <v>4183126</v>
       </c>
       <c r="F13" s="3">
-        <v>659</v>
+        <v>49430</v>
       </c>
       <c r="G13" s="3">
-        <v>14</v>
+        <v>5701</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -1043,290 +998,115 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>109</v>
+        <v>1196</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3">
-        <v>113046</v>
+        <v>566966</v>
       </c>
       <c r="F14" s="3">
-        <v>8422</v>
+        <v>18782</v>
       </c>
       <c r="G14" s="3">
-        <v>83</v>
+        <v>416</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>61</v>
+        <v>298</v>
       </c>
       <c r="L14" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3">
-        <v>110</v>
+        <v>222595</v>
       </c>
       <c r="F15" s="3">
-        <v>2</v>
+        <v>9022</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="3">
-        <v>2</v>
+        <v>472979</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>20185</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="L16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="3">
-        <v>472979</v>
-      </c>
-      <c r="F17" s="3">
-        <v>20185</v>
-      </c>
-      <c r="G17" s="3">
-        <v>515</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>260</v>
-      </c>
-      <c r="L17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="3">
-        <v>69498</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1189</v>
-      </c>
-      <c r="G18" s="3">
-        <v>45</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>220</v>
-      </c>
-      <c r="L18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="3">
-        <v>222595</v>
-      </c>
-      <c r="F19" s="3">
-        <v>9022</v>
-      </c>
-      <c r="G19" s="3">
-        <v>147</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>130</v>
-      </c>
-      <c r="L19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4183126</v>
-      </c>
-      <c r="F20" s="3">
-        <v>49430</v>
-      </c>
-      <c r="G20" s="3">
-        <v>5701</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>1196</v>
-      </c>
-      <c r="L20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="3">
-        <v>24890</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1321</v>
-      </c>
-      <c r="G21" s="3">
-        <v>34</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>154</v>
-      </c>
-      <c r="L21" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1345,11 +1125,6 @@
     <hyperlink ref="A14" r:id="rId12"/>
     <hyperlink ref="A15" r:id="rId13"/>
     <hyperlink ref="A16" r:id="rId14"/>
-    <hyperlink ref="A17" r:id="rId15"/>
-    <hyperlink ref="A18" r:id="rId16"/>
-    <hyperlink ref="A19" r:id="rId17"/>
-    <hyperlink ref="A20" r:id="rId18"/>
-    <hyperlink ref="A21" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1380,28 +1155,28 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>26578</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1409,7 +1184,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-v.xlsx
+++ b/app/assets/data/info/evo-france-info-week-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>URL</t>
   </si>
@@ -68,16 +68,25 @@
     <t>[]</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
-  </si>
-  <si>
-    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
-  </si>
-  <si>
-    <t>hommes libres</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:12:49.000Z</t>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
+  </si>
+  <si>
+    <t>Nord Stream II, le blocage ?</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:23:54.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
@@ -92,6 +101,96 @@
     <t>2019-06-12T18:00:03.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
   </si>
   <si>
@@ -101,27 +200,6 @@
     <t>2019-06-24T16:00:05.000Z</t>
   </si>
   <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
   </si>
   <si>
@@ -132,75 +210,6 @@
   </si>
   <si>
     <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -561,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -668,13 +677,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>5563</v>
+        <v>5880</v>
       </c>
       <c r="F4" s="3">
-        <v>265</v>
+        <v>594</v>
       </c>
       <c r="G4" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -683,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -697,28 +706,28 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" s="3">
-        <v>4711</v>
+        <v>13867</v>
       </c>
       <c r="F5" s="3">
-        <v>387</v>
+        <v>934</v>
       </c>
       <c r="G5" s="3">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -726,69 +735,69 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="3">
-        <v>511312</v>
+        <v>4711</v>
       </c>
       <c r="F6" s="3">
-        <v>15167</v>
+        <v>387</v>
       </c>
       <c r="G6" s="3">
-        <v>402</v>
+        <v>38</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="3">
-        <v>18665</v>
+        <v>3</v>
       </c>
       <c r="F7" s="3">
-        <v>659</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -802,19 +811,19 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="3">
-        <v>24890</v>
+        <v>222595</v>
       </c>
       <c r="F8" s="3">
-        <v>1321</v>
+        <v>9022</v>
       </c>
       <c r="G8" s="3">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -823,42 +832,42 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="3">
-        <v>2</v>
+        <v>24890</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>1321</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -907,19 +916,19 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="3">
-        <v>69498</v>
+        <v>4183126</v>
       </c>
       <c r="F11" s="3">
-        <v>1189</v>
+        <v>49430</v>
       </c>
       <c r="G11" s="3">
-        <v>45</v>
+        <v>5701</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -928,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>220</v>
+        <v>1196</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -942,54 +951,54 @@
         <v>47</v>
       </c>
       <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
       <c r="E12" s="3">
-        <v>110</v>
+        <v>566966</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>18782</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" s="3">
+        <v>18665</v>
+      </c>
+      <c r="F13" s="3">
+        <v>659</v>
+      </c>
+      <c r="G13" s="3">
         <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4183126</v>
-      </c>
-      <c r="F13" s="3">
-        <v>49430</v>
-      </c>
-      <c r="G13" s="3">
-        <v>5701</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -998,33 +1007,33 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1196</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
         <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="3">
-        <v>566966</v>
+        <v>472979</v>
       </c>
       <c r="F14" s="3">
-        <v>18782</v>
+        <v>20185</v>
       </c>
       <c r="G14" s="3">
-        <v>416</v>
+        <v>515</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -1033,33 +1042,33 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="L14" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
       <c r="E15" s="3">
-        <v>222595</v>
+        <v>69498</v>
       </c>
       <c r="F15" s="3">
-        <v>9022</v>
+        <v>1189</v>
       </c>
       <c r="G15" s="3">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -1068,33 +1077,33 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="L15" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
         <v>59</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="3">
-        <v>472979</v>
+        <v>511312</v>
       </c>
       <c r="F16" s="3">
-        <v>20185</v>
+        <v>15167</v>
       </c>
       <c r="G16" s="3">
-        <v>515</v>
+        <v>402</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -1103,10 +1112,45 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="L16" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1125,6 +1169,7 @@
     <hyperlink ref="A14" r:id="rId12"/>
     <hyperlink ref="A15" r:id="rId13"/>
     <hyperlink ref="A16" r:id="rId14"/>
+    <hyperlink ref="A17" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1147,7 +1192,7 @@
         <v>14</v>
       </c>
       <c r="B1">
-        <v>126844</v>
+        <v>56868</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1155,20 +1200,20 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>9889</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1184,7 +1229,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-v.xlsx
+++ b/app/assets/data/info/evo-france-info-week-v.xlsx
@@ -101,6 +101,27 @@
     <t>2019-06-12T18:00:03.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
   </si>
   <si>
@@ -113,16 +134,13 @@
     <t>2019-04-25T10:47:19.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
@@ -134,6 +152,54 @@
     <t>2018-01-03T19:07:26.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
   </si>
   <si>
@@ -144,72 +210,6 @@
   </si>
   <si>
     <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -776,31 +776,31 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="3">
+        <v>222595</v>
+      </c>
+      <c r="F7" s="3">
+        <v>9022</v>
+      </c>
+      <c r="G7" s="3">
+        <v>147</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>130</v>
+      </c>
+      <c r="L7" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -811,19 +811,19 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="3">
-        <v>222595</v>
+        <v>69498</v>
       </c>
       <c r="F8" s="3">
-        <v>9022</v>
+        <v>1189</v>
       </c>
       <c r="G8" s="3">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -832,42 +832,42 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="3">
-        <v>24890</v>
+        <v>3</v>
       </c>
       <c r="F9" s="3">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -881,54 +881,54 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
       <c r="E10" s="3">
-        <v>2</v>
+        <v>511312</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>15167</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
       <c r="E11" s="3">
-        <v>4183126</v>
+        <v>24890</v>
       </c>
       <c r="F11" s="3">
-        <v>49430</v>
+        <v>1321</v>
       </c>
       <c r="G11" s="3">
-        <v>5701</v>
+        <v>34</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -937,33 +937,33 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1196</v>
+        <v>154</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
         <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="3">
-        <v>566966</v>
+        <v>472979</v>
       </c>
       <c r="F12" s="3">
-        <v>18782</v>
+        <v>20185</v>
       </c>
       <c r="G12" s="3">
-        <v>416</v>
+        <v>515</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -972,24 +972,24 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
         <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3">
         <v>18665</v>
@@ -1015,25 +1015,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
         <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3">
-        <v>472979</v>
+        <v>566966</v>
       </c>
       <c r="F14" s="3">
-        <v>20185</v>
+        <v>18782</v>
       </c>
       <c r="G14" s="3">
-        <v>515</v>
+        <v>416</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -1042,33 +1042,33 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
       <c r="E15" s="3">
-        <v>69498</v>
+        <v>4183126</v>
       </c>
       <c r="F15" s="3">
-        <v>1189</v>
+        <v>49430</v>
       </c>
       <c r="G15" s="3">
-        <v>45</v>
+        <v>5701</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -1077,45 +1077,45 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>220</v>
+        <v>1196</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
         <v>58</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="3">
-        <v>511312</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3">
-        <v>15167</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1213,7 +1213,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-v.xlsx
+++ b/app/assets/data/info/evo-france-info-week-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>URL</t>
   </si>
@@ -53,31 +53,43 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
-  </si>
-  <si>
-    <t>Les pires cadeaux de Noël</t>
-  </si>
-  <si>
-    <t>Franjo</t>
-  </si>
-  <si>
-    <t>2019-12-24T17:00:02.000Z</t>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
@@ -87,105 +99,6 @@
   </si>
   <si>
     <t>2019-12-23T17:23:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
@@ -570,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,13 +555,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>126844</v>
+        <v>5880</v>
       </c>
       <c r="F3" s="3">
-        <v>8977</v>
+        <v>594</v>
       </c>
       <c r="G3" s="3">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -657,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -677,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>5880</v>
+        <v>1386</v>
       </c>
       <c r="F4" s="3">
-        <v>594</v>
+        <v>47</v>
       </c>
       <c r="G4" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -692,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -706,28 +619,28 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>13867</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>934</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -735,34 +648,34 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="3">
-        <v>4711</v>
+        <v>13867</v>
       </c>
       <c r="F6" s="3">
-        <v>387</v>
+        <v>934</v>
       </c>
       <c r="G6" s="3">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -776,31 +689,31 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3">
-        <v>222595</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3">
-        <v>9022</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -811,345 +724,30 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3">
-        <v>69498</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>1189</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3">
-        <v>511312</v>
-      </c>
-      <c r="F10" s="3">
-        <v>15167</v>
-      </c>
-      <c r="G10" s="3">
-        <v>402</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>201</v>
-      </c>
-      <c r="L10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="3">
-        <v>24890</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1321</v>
-      </c>
-      <c r="G11" s="3">
-        <v>34</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>154</v>
-      </c>
-      <c r="L11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="3">
-        <v>472979</v>
-      </c>
-      <c r="F12" s="3">
-        <v>20185</v>
-      </c>
-      <c r="G12" s="3">
-        <v>515</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>260</v>
-      </c>
-      <c r="L12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="3">
-        <v>18665</v>
-      </c>
-      <c r="F13" s="3">
-        <v>659</v>
-      </c>
-      <c r="G13" s="3">
-        <v>14</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>109</v>
-      </c>
-      <c r="L13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="3">
-        <v>566966</v>
-      </c>
-      <c r="F14" s="3">
-        <v>18782</v>
-      </c>
-      <c r="G14" s="3">
-        <v>416</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>298</v>
-      </c>
-      <c r="L14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4183126</v>
-      </c>
-      <c r="F15" s="3">
-        <v>49430</v>
-      </c>
-      <c r="G15" s="3">
-        <v>5701</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>1196</v>
-      </c>
-      <c r="L15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1161,15 +759,6 @@
     <hyperlink ref="A6" r:id="rId4"/>
     <hyperlink ref="A7" r:id="rId5"/>
     <hyperlink ref="A8" r:id="rId6"/>
-    <hyperlink ref="A9" r:id="rId7"/>
-    <hyperlink ref="A10" r:id="rId8"/>
-    <hyperlink ref="A11" r:id="rId9"/>
-    <hyperlink ref="A12" r:id="rId10"/>
-    <hyperlink ref="A13" r:id="rId11"/>
-    <hyperlink ref="A14" r:id="rId12"/>
-    <hyperlink ref="A15" r:id="rId13"/>
-    <hyperlink ref="A16" r:id="rId14"/>
-    <hyperlink ref="A17" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1177,7 +766,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1192,7 +781,7 @@
         <v>14</v>
       </c>
       <c r="B1">
-        <v>56868</v>
+        <v>7571</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1200,20 +789,20 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>9889</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1221,17 +810,9 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-week-v.xlsx
+++ b/app/assets/data/info/evo-france-info-week-v.xlsx
@@ -80,6 +80,39 @@
     <t>2019-12-26T16:00:04.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
+  </si>
+  <si>
+    <t>Nord Stream II, le blocage ?</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:23:54.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
   </si>
   <si>
@@ -90,39 +123,6 @@
   </si>
   <si>
     <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
-  </si>
-  <si>
-    <t>Nord Stream II, le blocage ?</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:23:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -625,7 +625,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -654,28 +654,28 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3">
-        <v>13867</v>
+        <v>2</v>
       </c>
       <c r="F6" s="3">
-        <v>934</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -683,34 +683,34 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="3">
-        <v>2</v>
+        <v>13867</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -730,7 +730,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-v.xlsx
+++ b/app/assets/data/info/evo-france-info-week-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>URL</t>
   </si>
@@ -53,6 +53,21 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
+  </si>
+  <si>
+    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
+  </si>
+  <si>
+    <t>JEAN-LUC MÉLENCHON</t>
+  </si>
+  <si>
+    <t>2019-12-24T10:10:35.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
   </si>
   <si>
@@ -65,7 +80,28 @@
     <t>2019-12-27T13:43:31.000Z</t>
   </si>
   <si>
-    <t>[]</t>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
@@ -80,6 +116,18 @@
     <t>2019-12-26T16:00:04.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
   </si>
   <si>
@@ -90,39 +138,6 @@
   </si>
   <si>
     <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
-  </si>
-  <si>
-    <t>Nord Stream II, le blocage ?</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:23:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -483,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,13 +570,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>5880</v>
+        <v>75707</v>
       </c>
       <c r="F3" s="3">
-        <v>594</v>
+        <v>4287</v>
       </c>
       <c r="G3" s="3">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -570,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>89</v>
+        <v>628</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -590,13 +605,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>1386</v>
+        <v>5880</v>
       </c>
       <c r="F4" s="3">
-        <v>47</v>
+        <v>594</v>
       </c>
       <c r="G4" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -605,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -625,14 +640,14 @@
         <v>24</v>
       </c>
       <c r="E5" s="3">
+        <v>2165</v>
+      </c>
+      <c r="F5" s="3">
+        <v>278</v>
+      </c>
+      <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
       <c r="H5" s="3">
         <v>0</v>
       </c>
@@ -640,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -660,7 +675,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -689,28 +704,28 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3">
-        <v>13867</v>
+        <v>1386</v>
       </c>
       <c r="F7" s="3">
-        <v>934</v>
+        <v>47</v>
       </c>
       <c r="G7" s="3">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -718,19 +733,19 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -748,6 +763,41 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -759,6 +809,7 @@
     <hyperlink ref="A6" r:id="rId4"/>
     <hyperlink ref="A7" r:id="rId5"/>
     <hyperlink ref="A8" r:id="rId6"/>
+    <hyperlink ref="A9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -766,7 +817,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -781,7 +832,7 @@
         <v>14</v>
       </c>
       <c r="B1">
-        <v>7571</v>
+        <v>13166</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -789,7 +840,7 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>1386</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -797,7 +848,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -810,9 +861,25 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-week-v.xlsx
+++ b/app/assets/data/info/evo-france-info-week-v.xlsx
@@ -92,6 +92,30 @@
     <t>2019-11-30T05:00:09.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
   </si>
   <si>
@@ -102,30 +126,6 @@
   </si>
   <si>
     <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
@@ -675,14 +675,14 @@
         <v>28</v>
       </c>
       <c r="E6" s="3">
+        <v>1386</v>
+      </c>
+      <c r="F6" s="3">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
       <c r="H6" s="3">
         <v>0</v>
       </c>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -710,13 +710,13 @@
         <v>32</v>
       </c>
       <c r="E7" s="3">
-        <v>1386</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -745,7 +745,7 @@
         <v>36</v>
       </c>
       <c r="E8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-v.xlsx
+++ b/app/assets/data/info/evo-france-info-week-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>URL</t>
   </si>
@@ -53,6 +53,90 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
   </si>
   <si>
@@ -63,81 +147,6 @@
   </si>
   <si>
     <t>2019-12-24T10:10:35.000Z</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -498,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,13 +579,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>75707</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3">
-        <v>4287</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -585,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -605,22 +614,22 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>5880</v>
+        <v>23164</v>
       </c>
       <c r="F4" s="3">
-        <v>594</v>
+        <v>162</v>
       </c>
       <c r="G4" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -634,19 +643,19 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" s="3">
-        <v>2165</v>
+        <v>7772</v>
       </c>
       <c r="F5" s="3">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="G5" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -655,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -663,25 +672,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
       <c r="E6" s="3">
-        <v>1386</v>
+        <v>269112</v>
       </c>
       <c r="F6" s="3">
-        <v>47</v>
+        <v>5243</v>
       </c>
       <c r="G6" s="3">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -690,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>246</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -698,25 +707,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
       <c r="E7" s="3">
-        <v>2</v>
+        <v>2165</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -725,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -733,16 +742,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -768,36 +777,71 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="3">
+        <v>5880</v>
+      </c>
+      <c r="F9" s="3">
+        <v>594</v>
+      </c>
+      <c r="G9" s="3">
+        <v>9</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>89</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3">
+        <v>75707</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4287</v>
+      </c>
+      <c r="G10" s="3">
+        <v>108</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>628</v>
+      </c>
+      <c r="L10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -810,6 +854,7 @@
     <hyperlink ref="A7" r:id="rId5"/>
     <hyperlink ref="A8" r:id="rId6"/>
     <hyperlink ref="A9" r:id="rId7"/>
+    <hyperlink ref="A10" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -832,7 +877,7 @@
         <v>14</v>
       </c>
       <c r="B1">
-        <v>13166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -840,20 +885,20 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>1691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -861,7 +906,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -869,7 +914,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -877,7 +922,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-v.xlsx
+++ b/app/assets/data/info/evo-france-info-week-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>URL</t>
   </si>
@@ -53,16 +53,16 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
   </si>
   <si>
     <t>[]</t>
@@ -80,6 +80,51 @@
     <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
+  </si>
+  <si>
+    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
+  </si>
+  <si>
+    <t>JEAN-LUC MÉLENCHON</t>
+  </si>
+  <si>
+    <t>2019-12-24T10:10:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
   </si>
   <si>
@@ -101,30 +146,6 @@
     <t>2019-04-06T13:45:00.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
   </si>
   <si>
@@ -135,18 +156,6 @@
   </si>
   <si>
     <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
-  </si>
-  <si>
-    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
-  </si>
-  <si>
-    <t>JEAN-LUC MÉLENCHON</t>
-  </si>
-  <si>
-    <t>2019-12-24T10:10:35.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -507,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,16 +588,16 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -643,19 +652,19 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>7772</v>
+        <v>75707</v>
       </c>
       <c r="F5" s="3">
-        <v>239</v>
+        <v>4287</v>
       </c>
       <c r="G5" s="3">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -664,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16</v>
+        <v>628</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -672,25 +681,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3">
-        <v>269112</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3">
-        <v>5243</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -699,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -707,25 +716,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="3">
-        <v>2165</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -734,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -754,13 +763,13 @@
         <v>35</v>
       </c>
       <c r="E8" s="3">
-        <v>3</v>
+        <v>2165</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -769,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -783,19 +792,19 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
       <c r="E9" s="3">
-        <v>5880</v>
+        <v>7772</v>
       </c>
       <c r="F9" s="3">
-        <v>594</v>
+        <v>239</v>
       </c>
       <c r="G9" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -804,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -812,36 +821,71 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="3">
+        <v>269112</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5243</v>
+      </c>
+      <c r="G10" s="3">
+        <v>129</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>246</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="3">
-        <v>75707</v>
-      </c>
-      <c r="F10" s="3">
-        <v>4287</v>
-      </c>
-      <c r="G10" s="3">
-        <v>108</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>628</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5880</v>
+      </c>
+      <c r="F11" s="3">
+        <v>594</v>
+      </c>
+      <c r="G11" s="3">
+        <v>9</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>89</v>
+      </c>
+      <c r="L11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -855,6 +899,7 @@
     <hyperlink ref="A8" r:id="rId6"/>
     <hyperlink ref="A9" r:id="rId7"/>
     <hyperlink ref="A10" r:id="rId8"/>
+    <hyperlink ref="A11" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -890,7 +935,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -898,7 +943,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -914,7 +959,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -922,7 +967,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-v.xlsx
+++ b/app/assets/data/info/evo-france-info-week-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>URL</t>
   </si>
@@ -53,19 +53,64 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
+  </si>
+  <si>
+    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
+  </si>
+  <si>
+    <t>JEAN-LUC MÉLENCHON</t>
+  </si>
+  <si>
+    <t>2019-12-24T10:10:35.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
   </si>
   <si>
     <t>Questions/réflexions en Commission des Finances</t>
   </si>
   <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
     <t>2019-09-18T14:45:38.000Z</t>
   </si>
   <si>
-    <t>[]</t>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
@@ -80,51 +125,6 @@
     <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
-  </si>
-  <si>
-    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
-  </si>
-  <si>
-    <t>JEAN-LUC MÉLENCHON</t>
-  </si>
-  <si>
-    <t>2019-12-24T10:10:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
   </si>
   <si>
@@ -132,30 +132,6 @@
   </si>
   <si>
     <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -516,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,22 +564,22 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>41</v>
+        <v>75707</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>4287</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="H3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -623,22 +599,22 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>23164</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -658,13 +634,13 @@
         <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>75707</v>
+        <v>2165</v>
       </c>
       <c r="F5" s="3">
-        <v>4287</v>
+        <v>278</v>
       </c>
       <c r="G5" s="3">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -673,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>628</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -687,22 +663,22 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
       <c r="E6" s="3">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -716,25 +692,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="3">
-        <v>9</v>
+        <v>269112</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>5243</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -743,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -763,22 +739,22 @@
         <v>35</v>
       </c>
       <c r="E8" s="3">
-        <v>2165</v>
+        <v>23164</v>
       </c>
       <c r="F8" s="3">
-        <v>278</v>
+        <v>162</v>
       </c>
       <c r="G8" s="3">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -792,7 +768,7 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
@@ -816,76 +792,6 @@
         <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3">
-        <v>269112</v>
-      </c>
-      <c r="F10" s="3">
-        <v>5243</v>
-      </c>
-      <c r="G10" s="3">
-        <v>129</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>246</v>
-      </c>
-      <c r="L10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5880</v>
-      </c>
-      <c r="F11" s="3">
-        <v>594</v>
-      </c>
-      <c r="G11" s="3">
-        <v>9</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>89</v>
-      </c>
-      <c r="L11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -898,8 +804,6 @@
     <hyperlink ref="A7" r:id="rId5"/>
     <hyperlink ref="A8" r:id="rId6"/>
     <hyperlink ref="A9" r:id="rId7"/>
-    <hyperlink ref="A10" r:id="rId8"/>
-    <hyperlink ref="A11" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -907,7 +811,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -943,7 +847,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -954,22 +858,6 @@
         <v>34</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-week-v.xlsx
+++ b/app/assets/data/info/evo-france-info-week-v.xlsx
@@ -53,6 +53,57 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
   </si>
   <si>
@@ -65,33 +116,6 @@
     <t>2019-12-24T10:10:35.000Z</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
   </si>
   <si>
@@ -101,37 +125,13 @@
     <t>2019-09-18T14:45:38.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
   </si>
   <si>
     <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
   </si>
   <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
     <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -564,13 +564,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>75707</v>
+        <v>269112</v>
       </c>
       <c r="F3" s="3">
-        <v>4287</v>
+        <v>5243</v>
       </c>
       <c r="G3" s="3">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>628</v>
+        <v>246</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -663,28 +663,28 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3">
-        <v>41</v>
+        <v>7772</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -692,25 +692,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3">
-        <v>269112</v>
+        <v>75707</v>
       </c>
       <c r="F7" s="3">
-        <v>5243</v>
+        <v>4287</v>
       </c>
       <c r="G7" s="3">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>246</v>
+        <v>628</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -727,25 +727,25 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="3">
-        <v>23164</v>
+        <v>41</v>
       </c>
       <c r="F8" s="3">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -768,28 +768,28 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="3">
-        <v>7772</v>
+        <v>23164</v>
       </c>
       <c r="F9" s="3">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="G9" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-v.xlsx
+++ b/app/assets/data/info/evo-france-info-week-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>URL</t>
   </si>
@@ -53,6 +53,21 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
   </si>
   <si>
@@ -65,9 +80,6 @@
     <t>2019-04-06T13:45:00.000Z</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
   </si>
   <si>
@@ -80,6 +92,15 @@
     <t>2019-11-28T14:00:58.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
   </si>
   <si>
@@ -90,39 +111,6 @@
   </si>
   <si>
     <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
-  </si>
-  <si>
-    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
-  </si>
-  <si>
-    <t>JEAN-LUC MÉLENCHON</t>
-  </si>
-  <si>
-    <t>2019-12-24T10:10:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
@@ -492,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,13 +552,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>269112</v>
+        <v>7772</v>
       </c>
       <c r="F3" s="3">
-        <v>5243</v>
+        <v>239</v>
       </c>
       <c r="G3" s="3">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -579,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -599,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>9</v>
+        <v>269112</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>5243</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -614,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -634,13 +622,13 @@
         <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>2165</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -649,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -663,28 +651,28 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
       <c r="E6" s="3">
-        <v>7772</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -692,34 +680,34 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="3">
+        <v>2165</v>
+      </c>
+      <c r="F7" s="3">
+        <v>278</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>32</v>
-      </c>
-      <c r="E7" s="3">
-        <v>75707</v>
-      </c>
-      <c r="F7" s="3">
-        <v>4287</v>
-      </c>
-      <c r="G7" s="3">
-        <v>108</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>628</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -727,25 +715,25 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
       <c r="E8" s="3">
-        <v>41</v>
+        <v>23164</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -754,44 +742,9 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="3">
-        <v>23164</v>
-      </c>
-      <c r="F9" s="3">
-        <v>162</v>
-      </c>
-      <c r="G9" s="3">
-        <v>8</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
-      <c r="L9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -803,7 +756,6 @@
     <hyperlink ref="A6" r:id="rId4"/>
     <hyperlink ref="A7" r:id="rId5"/>
     <hyperlink ref="A8" r:id="rId6"/>
-    <hyperlink ref="A9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -811,7 +763,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -847,17 +799,9 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-week-v.xlsx
+++ b/app/assets/data/info/evo-france-info-week-v.xlsx
@@ -53,73 +53,73 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
   </si>
   <si>
     <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
   </si>
   <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
     <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -552,13 +552,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>7772</v>
+        <v>2165</v>
       </c>
       <c r="F3" s="3">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="G3" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -587,22 +587,22 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>269112</v>
+        <v>23164</v>
       </c>
       <c r="F4" s="3">
-        <v>5243</v>
+        <v>162</v>
       </c>
       <c r="G4" s="3">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -622,13 +622,13 @@
         <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>9</v>
+        <v>269112</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>5243</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -651,10 +651,10 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3">
         <v>41</v>
@@ -680,25 +680,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="3">
-        <v>2165</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -721,28 +721,28 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="3">
-        <v>23164</v>
+        <v>7772</v>
       </c>
       <c r="F8" s="3">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="G8" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-v.xlsx
+++ b/app/assets/data/info/evo-france-info-week-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>URL</t>
   </si>
@@ -53,45 +53,42 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
   </si>
   <si>
     <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
   </si>
   <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
     <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
   </si>
   <si>
@@ -111,15 +108,6 @@
   </si>
   <si>
     <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -480,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,13 +540,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>2165</v>
+        <v>7772</v>
       </c>
       <c r="F3" s="3">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="G3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -567,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -587,22 +575,22 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>23164</v>
+        <v>269112</v>
       </c>
       <c r="F4" s="3">
-        <v>162</v>
+        <v>5243</v>
       </c>
       <c r="G4" s="3">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -616,28 +604,28 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" s="3">
-        <v>269112</v>
+        <v>23164</v>
       </c>
       <c r="F5" s="3">
-        <v>5243</v>
+        <v>162</v>
       </c>
       <c r="G5" s="3">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -645,16 +633,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
       </c>
       <c r="E6" s="3">
         <v>41</v>
@@ -680,16 +668,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
       </c>
       <c r="E7" s="3">
         <v>9</v>
@@ -710,41 +698,6 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="3">
-        <v>7772</v>
-      </c>
-      <c r="F8" s="3">
-        <v>239</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>16</v>
-      </c>
-      <c r="L8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -755,7 +708,6 @@
     <hyperlink ref="A5" r:id="rId3"/>
     <hyperlink ref="A6" r:id="rId4"/>
     <hyperlink ref="A7" r:id="rId5"/>
-    <hyperlink ref="A8" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -763,7 +715,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -791,17 +743,9 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-week-v.xlsx
+++ b/app/assets/data/info/evo-france-info-week-v.xlsx
@@ -53,61 +53,61 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
   </si>
   <si>
     <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
   </si>
   <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
     <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -540,22 +540,22 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>7772</v>
+        <v>41</v>
       </c>
       <c r="F3" s="3">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -575,22 +575,22 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>269112</v>
+        <v>23164</v>
       </c>
       <c r="F4" s="3">
-        <v>5243</v>
+        <v>162</v>
       </c>
       <c r="G4" s="3">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -604,28 +604,28 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>23164</v>
+        <v>269112</v>
       </c>
       <c r="F5" s="3">
-        <v>162</v>
+        <v>5243</v>
       </c>
       <c r="G5" s="3">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -633,28 +633,28 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="3">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -674,19 +674,19 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="3">
-        <v>9</v>
+        <v>7772</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-v.xlsx
+++ b/app/assets/data/info/evo-france-info-week-v.xlsx
@@ -53,61 +53,61 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
   </si>
   <si>
     <t>Questions/réflexions en Commission des Finances</t>
   </si>
   <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
     <t>2019-09-18T14:45:38.000Z</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -540,22 +540,22 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>41</v>
+        <v>269112</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>5243</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="H3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -610,13 +610,13 @@
         <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>269112</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3">
-        <v>5243</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -639,19 +639,19 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="3">
-        <v>9</v>
+        <v>7772</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -674,28 +674,28 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="3">
-        <v>7772</v>
+        <v>41</v>
       </c>
       <c r="F7" s="3">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>

--- a/app/assets/data/info/evo-france-info-week-v.xlsx
+++ b/app/assets/data/info/evo-france-info-week-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>URL</t>
   </si>
@@ -53,52 +53,19 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
   </si>
   <si>
     <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
@@ -468,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,13 +507,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>269112</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3">
-        <v>5243</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -555,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -569,19 +536,19 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" s="3">
-        <v>23164</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -590,114 +557,9 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3">
-        <v>7772</v>
-      </c>
-      <c r="F6" s="3">
-        <v>239</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>16</v>
-      </c>
-      <c r="L6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3">
-        <v>41</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -705,9 +567,6 @@
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A6" r:id="rId4"/>
-    <hyperlink ref="A7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -715,7 +574,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -733,22 +592,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/assets/data/info/evo-france-info-week-v.xlsx
+++ b/app/assets/data/info/evo-france-info-week-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>URL</t>
   </si>
@@ -51,30 +51,6 @@
   </si>
   <si>
     <t>Top Channels Recommending It with &gt; 100k subs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -84,10 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###,###,###,###"/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +75,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,21 +94,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -435,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,81 +452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3">
-        <v>41</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -585,11 +470,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
